--- a/Talleres/1. Condicionales, Funciones de texto y Buscarv.xlsx
+++ b/Talleres/1. Condicionales, Funciones de texto y Buscarv.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4626,9 +4626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Talleres/1. Condicionales, Funciones de texto y Buscarv.xlsx
+++ b/Talleres/1. Condicionales, Funciones de texto y Buscarv.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/Talleres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{35F212D5-BAA2-478B-B7EE-064E9E715578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39E4E56E-9315-499C-A335-4DAA674BC796}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{35F212D5-BAA2-478B-B7EE-064E9E715578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0B8A76-1C76-4DEC-857E-9EFE25A2BC0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GRATIFICACIÓN" sheetId="2" r:id="rId1"/>
-    <sheet name="RESULTADOS" sheetId="3" r:id="rId2"/>
-    <sheet name="CUENTAS" sheetId="4" r:id="rId3"/>
-    <sheet name="CARROS" sheetId="5" r:id="rId4"/>
-    <sheet name="REMUNERACIONES" sheetId="6" r:id="rId5"/>
-    <sheet name="ESTADO DE SALUD" sheetId="7" r:id="rId6"/>
-    <sheet name="FUNCIONES DE TEXTO" sheetId="11" r:id="rId7"/>
-    <sheet name="MORTALIDAD (BASES DE DATOS)" sheetId="9" r:id="rId8"/>
-    <sheet name="TABLAS DINÁMICAS" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Instrucciones Generales" sheetId="12" r:id="rId1"/>
+    <sheet name="GRATIFICACIÓN" sheetId="2" r:id="rId2"/>
+    <sheet name="RESULTADOS" sheetId="3" r:id="rId3"/>
+    <sheet name="CUENTAS" sheetId="4" r:id="rId4"/>
+    <sheet name="CARROS" sheetId="5" r:id="rId5"/>
+    <sheet name="REMUNERACIONES" sheetId="6" r:id="rId6"/>
+    <sheet name="ESTADO DE SALUD" sheetId="7" r:id="rId7"/>
+    <sheet name="FUNCIONES DE TEXTO" sheetId="11" r:id="rId8"/>
+    <sheet name="MORTALIDAD (BASES DE DATOS)" sheetId="9" r:id="rId9"/>
+    <sheet name="TABLAS DINÁMICAS" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="__f">3</definedName>
     <definedName name="_f">3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FUNCIONES DE TEXTO'!$A$1:$D$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FUNCIONES DE TEXTO'!$A$1:$D$301</definedName>
     <definedName name="anscount">2</definedName>
     <definedName name="BUSCAR">#REF!</definedName>
     <definedName name="CIUDAD">#REF!</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="890">
   <si>
     <t>Nombre</t>
   </si>
@@ -2797,6 +2798,51 @@
   <si>
     <t>Soledad Vera</t>
   </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Criterios cualitativos</t>
+  </si>
+  <si>
+    <t>Básico</t>
+  </si>
+  <si>
+    <t>Maneja condiciones simples, referencias absolutas básicas y relleno consistente; entiende BUSCARV con coincidencia exacta y separadores regionales .</t>
+  </si>
+  <si>
+    <t>Intermedio</t>
+  </si>
+  <si>
+    <t>Todo lo de Básico + 4) CARROS completo con SI anidados y celdas vacías + 5) ESTADO DE SALUD con Y/O + 6) FUNCIONES DE TEXTO (al menos 8 transformaciones distintas)</t>
+  </si>
+  <si>
+    <t>Encadena lógicas múltiples, domina operadores Y/O, gestiona textos, posiciones y longitudes; diferencia vacío de cero y aplica limpieza sistemática .</t>
+  </si>
+  <si>
+    <t>Intermedio‑alto</t>
+  </si>
+  <si>
+    <t>Todo lo de Intermedio + 7) REMUNERACIONES completo con varias búsquedas cruzadas y cálculos sobre base y bruto + 8) TABLAS DINÁMICAS ejercicios 1–3 (sumas, recuentos, promedios, % del total)</t>
+  </si>
+  <si>
+    <t>Integra múltiples tablas de parámetros con referencias absolutas; arma tablas dinámicas con “Mostrar valores como” y configura varias métricas simultáneas .</t>
+  </si>
+  <si>
+    <t>Avanzado</t>
+  </si>
+  <si>
+    <t>Todo lo de Intermedio‑alto + 9) TABLAS DINÁMICAS ejercicio 4 (campo calculado 3,5%) + 10) MORTALIDAD: transforma el set en formato analítico con Power Query (unpivot) y lo deja listo para análisis</t>
+  </si>
+  <si>
+    <t>Crea campos calculados en pivots, transforma modelos de datos, des-pivota correctamente y valida tipos/separadores para análisis por “Edad–Año–Sexo–Tasa” .</t>
+  </si>
+  <si>
+    <t>Ejercicios logrados</t>
+  </si>
+  <si>
+    <t>1) GRATIFICACIÓN con SI o BUSCARV + 2) RESULTADOS con SI + 3) CUENTAS con SI</t>
+  </si>
 </sst>
 </file>
 
@@ -2812,7 +2858,7 @@
     <numFmt numFmtId="169" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3094,8 +3140,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3198,8 +3257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -3833,11 +3898,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4115,6 +4195,12 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4623,21 +4709,809 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C04CCF-7C83-45B8-9085-3FFBBD52DB5A}">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="4" width="46.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="144" t="s">
+        <v>875</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>888</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="145" t="s">
+        <v>877</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>889</v>
+      </c>
+      <c r="D3" s="145" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="145" t="s">
+        <v>879</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>880</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="145" t="s">
+        <v>882</v>
+      </c>
+      <c r="C5" s="145" t="s">
+        <v>883</v>
+      </c>
+      <c r="D5" s="145" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="145" t="s">
+        <v>885</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>886</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B3:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="1" customWidth="1"/>
+    <col min="11" max="26" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="143" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+    </row>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="92" t="s">
+        <v>826</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="92" t="s">
+        <v>827</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="92" t="s">
+        <v>828</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+    </row>
+    <row r="7" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="92" t="s">
+        <v>829</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+    </row>
+    <row r="8" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+    </row>
+    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>833</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="45">
+        <v>16</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>837</v>
+      </c>
+      <c r="E13" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="G13" s="48">
+        <v>2733</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="45">
+        <v>14</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>841</v>
+      </c>
+      <c r="E14" s="47">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="G14" s="48">
+        <v>658</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41"/>
+      <c r="C15" s="45">
+        <v>2</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>846</v>
+      </c>
+      <c r="G15" s="48">
+        <v>8076</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="41"/>
+      <c r="C16" s="45">
+        <v>3</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="E16" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="G16" s="48">
+        <v>4873</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="45">
+        <v>15</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="E17" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="G17" s="48">
+        <v>7047</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="45">
+        <v>4</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>850</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="G18" s="48">
+        <v>750</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="45">
+        <v>5</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="E19" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="G19" s="48">
+        <v>7686</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="45">
+        <v>15</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="E20" s="47">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>846</v>
+      </c>
+      <c r="G20" s="48">
+        <v>4923</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="45">
+        <v>6</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="E21" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="G21" s="48">
+        <v>797</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="45">
+        <v>16</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>856</v>
+      </c>
+      <c r="E22" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="G22" s="48">
+        <v>6544</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="45">
+        <v>17</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="E23" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="G23" s="48">
+        <v>995</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="45">
+        <v>7</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="G24" s="48">
+        <v>2741</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="45">
+        <v>8</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="E25" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="G25" s="48">
+        <v>7612</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="45">
+        <v>18</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="E26" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="G26" s="48">
+        <v>2956</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="45">
+        <v>9</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="E27" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="G27" s="48">
+        <v>5575</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="45">
+        <v>19</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E28" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="G28" s="48">
+        <v>650</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="45">
+        <v>10</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="E29" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="G29" s="48">
+        <v>8165</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="45">
+        <v>20</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>867</v>
+      </c>
+      <c r="E30" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="G30" s="48">
+        <v>6751</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="45">
+        <v>11</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>868</v>
+      </c>
+      <c r="E31" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="G31" s="48">
+        <v>7191</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="45">
+        <v>21</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="E32" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="G32" s="48">
+        <v>865</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="45">
+        <v>12</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>870</v>
+      </c>
+      <c r="E33" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="G33" s="48">
+        <v>3338</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="45">
+        <v>22</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>871</v>
+      </c>
+      <c r="E34" s="47">
+        <v>1997</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="G34" s="48">
+        <v>900</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="45">
+        <v>13</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="E35" s="47">
+        <v>1998</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="G35" s="48">
+        <v>450</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="51">
+        <v>23</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>874</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1998</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>842</v>
+      </c>
+      <c r="G36" s="54">
+        <v>840</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>843</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4651,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +5537,7 @@
       </c>
       <c r="D2" s="97"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4675,7 +5549,7 @@
       </c>
       <c r="D3" s="97"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +5561,7 @@
       </c>
       <c r="D4" s="97"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4699,7 +5573,7 @@
       </c>
       <c r="D5" s="97"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -4711,7 +5585,7 @@
       </c>
       <c r="D6" s="97"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +5597,7 @@
       </c>
       <c r="D7" s="97"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -4735,7 +5609,7 @@
       </c>
       <c r="D8" s="97"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4747,7 +5621,7 @@
       </c>
       <c r="D9" s="97"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -4759,7 +5633,7 @@
       </c>
       <c r="D10" s="97"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -4771,7 +5645,7 @@
       </c>
       <c r="D11" s="97"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -4783,10 +5657,10 @@
       </c>
       <c r="D12" s="97"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -4795,7 +5669,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
@@ -4804,7 +5678,7 @@
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -4813,7 +5687,7 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
         <v>19</v>
       </c>
@@ -4826,7 +5700,7 @@
       <c r="H18" s="100"/>
       <c r="I18" s="100"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="100"/>
       <c r="B19" s="100"/>
       <c r="C19" s="100"/>
@@ -4837,7 +5711,7 @@
       <c r="H19" s="100"/>
       <c r="I19" s="100"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="100"/>
       <c r="B20" s="100"/>
       <c r="C20" s="100"/>
@@ -4848,7 +5722,7 @@
       <c r="H20" s="100"/>
       <c r="I20" s="100"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100"/>
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
@@ -4859,7 +5733,7 @@
       <c r="H21" s="100"/>
       <c r="I21" s="100"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="100"/>
       <c r="B22" s="100"/>
       <c r="C22" s="100"/>
@@ -4870,7 +5744,7 @@
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="100"/>
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
@@ -4881,7 +5755,7 @@
       <c r="H23" s="100"/>
       <c r="I23" s="100"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="100"/>
       <c r="B24" s="100"/>
       <c r="C24" s="100"/>
@@ -4901,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4909,15 +5783,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +5802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
@@ -4937,7 +5811,7 @@
       </c>
       <c r="C2" s="60"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>23</v>
       </c>
@@ -4946,7 +5820,7 @@
       </c>
       <c r="C3" s="60"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>24</v>
       </c>
@@ -4955,7 +5829,7 @@
       </c>
       <c r="C4" s="60"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
@@ -4964,21 +5838,21 @@
       </c>
       <c r="C5" s="60"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="95"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="101" t="s">
         <v>20</v>
       </c>
@@ -4987,7 +5861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="61">
         <v>0</v>
       </c>
@@ -4998,7 +5872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="61">
         <v>0.7</v>
       </c>
@@ -5018,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -5026,17 +5900,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="26" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -5045,7 +5919,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
@@ -5054,14 +5928,14 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
         <v>32</v>
       </c>
@@ -5078,7 +5952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="65">
         <v>144584</v>
       </c>
@@ -5093,7 +5967,7 @@
       </c>
       <c r="E5" s="68"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65">
         <v>154782</v>
       </c>
@@ -5108,7 +5982,7 @@
       </c>
       <c r="E6" s="68"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="65">
         <v>159858</v>
       </c>
@@ -5123,7 +5997,7 @@
       </c>
       <c r="E7" s="68"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
         <v>165431</v>
       </c>
@@ -5138,7 +6012,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
         <v>265846</v>
       </c>
@@ -5153,7 +6027,7 @@
       </c>
       <c r="E9" s="68"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="65">
         <v>321651</v>
       </c>
@@ -5168,7 +6042,7 @@
       </c>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="65">
         <v>321654</v>
       </c>
@@ -5183,7 +6057,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="65">
         <v>325651</v>
       </c>
@@ -5198,7 +6072,7 @@
       </c>
       <c r="E12" s="68"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="65">
         <v>362514</v>
       </c>
@@ -5213,7 +6087,7 @@
       </c>
       <c r="E13" s="68"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="65">
         <v>587955</v>
       </c>
@@ -5228,7 +6102,7 @@
       </c>
       <c r="E14" s="68"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="65">
         <v>695842</v>
       </c>
@@ -5243,7 +6117,7 @@
       </c>
       <c r="E15" s="68"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="65">
         <v>695922</v>
       </c>
@@ -5258,7 +6132,7 @@
       </c>
       <c r="E16" s="68"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="65">
         <v>698547</v>
       </c>
@@ -5273,21 +6147,21 @@
       </c>
       <c r="E17" s="68"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
@@ -5296,7 +6170,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
@@ -5305,7 +6179,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>41</v>
       </c>
@@ -5314,7 +6188,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
@@ -5323,14 +6197,14 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
@@ -5339,7 +6213,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>43</v>
       </c>
@@ -5348,7 +6222,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>44</v>
       </c>
@@ -5363,7 +6237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5371,18 +6245,18 @@
       <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="26" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>45</v>
       </c>
@@ -5399,7 +6273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>50</v>
       </c>
@@ -5408,7 +6282,7 @@
       <c r="D2" s="71"/>
       <c r="E2" s="71"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>51</v>
       </c>
@@ -5417,7 +6291,7 @@
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>52</v>
       </c>
@@ -5426,7 +6300,7 @@
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>51</v>
       </c>
@@ -5435,7 +6309,7 @@
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>50</v>
       </c>
@@ -5444,7 +6318,7 @@
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>52</v>
       </c>
@@ -5453,7 +6327,7 @@
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
@@ -5462,8 +6336,8 @@
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>46</v>
       </c>
@@ -5475,7 +6349,7 @@
       <c r="E11" s="112"/>
       <c r="F11" s="113"/>
     </row>
-    <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="114"/>
       <c r="B12" s="115"/>
       <c r="C12" s="115"/>
@@ -5483,7 +6357,7 @@
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>47</v>
       </c>
@@ -5495,7 +6369,7 @@
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
     </row>
-    <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="116"/>
       <c r="B14" s="115"/>
       <c r="C14" s="115"/>
@@ -5503,7 +6377,7 @@
       <c r="E14" s="115"/>
       <c r="F14" s="115"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="103" t="s">
         <v>48</v>
       </c>
@@ -5515,7 +6389,7 @@
       <c r="E15" s="106"/>
       <c r="F15" s="107"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="104"/>
       <c r="B16" s="108" t="s">
         <v>56</v>
@@ -5525,7 +6399,7 @@
       <c r="E16" s="109"/>
       <c r="F16" s="110"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="117"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
@@ -5533,7 +6407,7 @@
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="103" t="s">
         <v>57</v>
       </c>
@@ -5545,7 +6419,7 @@
       <c r="E18" s="106"/>
       <c r="F18" s="107"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="104"/>
       <c r="B19" s="108" t="s">
         <v>59</v>
@@ -5574,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5585,26 +6459,26 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="26" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
@@ -5622,7 +6496,7 @@
       <c r="M1" s="115"/>
       <c r="N1" s="115"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5644,7 +6518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +6562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>75</v>
       </c>
@@ -5716,7 +6590,7 @@
       <c r="M4" s="77"/>
       <c r="N4" s="80"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>79</v>
       </c>
@@ -5744,7 +6618,7 @@
       <c r="M5" s="77"/>
       <c r="N5" s="80"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>81</v>
       </c>
@@ -5772,7 +6646,7 @@
       <c r="M6" s="77"/>
       <c r="N6" s="80"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>85</v>
       </c>
@@ -5800,7 +6674,7 @@
       <c r="M7" s="77"/>
       <c r="N7" s="80"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>86</v>
       </c>
@@ -5828,7 +6702,7 @@
       <c r="M8" s="77"/>
       <c r="N8" s="80"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>89</v>
       </c>
@@ -5856,7 +6730,7 @@
       <c r="M9" s="77"/>
       <c r="N9" s="80"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
         <v>90</v>
       </c>
@@ -5884,7 +6758,7 @@
       <c r="M10" s="77"/>
       <c r="N10" s="80"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
         <v>92</v>
       </c>
@@ -5912,7 +6786,7 @@
       <c r="M11" s="77"/>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -5928,7 +6802,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="124" t="s">
         <v>94</v>
       </c>
@@ -5946,7 +6820,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
         <v>66</v>
       </c>
@@ -5974,7 +6848,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
         <v>78</v>
       </c>
@@ -6002,7 +6876,7 @@
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>88</v>
       </c>
@@ -6030,7 +6904,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
         <v>84</v>
       </c>
@@ -6051,7 +6925,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -6064,7 +6938,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="124" t="s">
         <v>98</v>
       </c>
@@ -6075,7 +6949,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
         <v>65</v>
       </c>
@@ -6092,7 +6966,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
         <v>77</v>
       </c>
@@ -6109,7 +6983,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
         <v>91</v>
       </c>
@@ -6126,7 +7000,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
         <v>83</v>
       </c>
@@ -6143,7 +7017,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="68" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
@@ -6158,7 +7032,7 @@
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
     </row>
-    <row r="69" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
@@ -6171,7 +7045,7 @@
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E70" s="126" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +7060,7 @@
       <c r="N70" s="20"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E71" s="128"/>
       <c r="F71" s="115"/>
       <c r="G71" s="129"/>
@@ -6201,7 +7075,7 @@
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E72" s="128"/>
       <c r="F72" s="115"/>
       <c r="G72" s="129"/>
@@ -6216,7 +7090,7 @@
       <c r="N72" s="119"/>
       <c r="O72" s="119"/>
     </row>
-    <row r="73" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E73" s="128"/>
       <c r="F73" s="115"/>
       <c r="G73" s="129"/>
@@ -6229,7 +7103,7 @@
       <c r="N73" s="115"/>
       <c r="O73" s="119"/>
     </row>
-    <row r="74" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E74" s="128"/>
       <c r="F74" s="115"/>
       <c r="G74" s="129"/>
@@ -6242,7 +7116,7 @@
       <c r="N74" s="115"/>
       <c r="O74" s="119"/>
     </row>
-    <row r="75" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E75" s="128"/>
       <c r="F75" s="115"/>
       <c r="G75" s="129"/>
@@ -6255,7 +7129,7 @@
       <c r="N75" s="115"/>
       <c r="O75" s="119"/>
     </row>
-    <row r="76" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E76" s="128"/>
       <c r="F76" s="115"/>
       <c r="G76" s="129"/>
@@ -6268,7 +7142,7 @@
       <c r="N76" s="115"/>
       <c r="O76" s="119"/>
     </row>
-    <row r="77" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E77" s="130"/>
       <c r="F77" s="122"/>
       <c r="G77" s="131"/>
@@ -6281,7 +7155,7 @@
       <c r="N77" s="115"/>
       <c r="O77" s="119"/>
     </row>
-    <row r="78" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E78" s="120">
         <v>50</v>
       </c>
@@ -6296,7 +7170,7 @@
       <c r="N78" s="115"/>
       <c r="O78" s="119"/>
     </row>
-    <row r="79" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E79" s="115"/>
       <c r="F79" s="115"/>
       <c r="G79" s="115"/>
@@ -6309,7 +7183,7 @@
       <c r="N79" s="115"/>
       <c r="O79" s="119"/>
     </row>
-    <row r="80" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E80" s="115"/>
       <c r="F80" s="115"/>
       <c r="G80" s="115"/>
@@ -6322,7 +7196,7 @@
       <c r="N80" s="115"/>
       <c r="O80" s="119"/>
     </row>
-    <row r="81" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E81" s="115"/>
       <c r="F81" s="115"/>
       <c r="G81" s="115"/>
@@ -6335,7 +7209,7 @@
       <c r="N81" s="115"/>
       <c r="O81" s="119"/>
     </row>
-    <row r="82" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
@@ -6348,7 +7222,7 @@
       <c r="N82" s="119"/>
       <c r="O82" s="119"/>
     </row>
-    <row r="83" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
@@ -6361,7 +7235,7 @@
       <c r="N83" s="20"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
@@ -6377,7 +7251,7 @@
       <c r="N84" s="121"/>
       <c r="O84" s="121"/>
     </row>
-    <row r="85" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
@@ -6390,7 +7264,7 @@
       <c r="N85" s="115"/>
       <c r="O85" s="115"/>
     </row>
-    <row r="86" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
@@ -6403,7 +7277,7 @@
       <c r="N86" s="115"/>
       <c r="O86" s="115"/>
     </row>
-    <row r="87" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
@@ -6416,7 +7290,7 @@
       <c r="N87" s="122"/>
       <c r="O87" s="122"/>
     </row>
-    <row r="88" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
@@ -6429,7 +7303,7 @@
       <c r="N88" s="121"/>
       <c r="O88" s="120"/>
     </row>
-    <row r="89" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
@@ -6442,7 +7316,7 @@
       <c r="N89" s="115"/>
       <c r="O89" s="115"/>
     </row>
-    <row r="90" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="5:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
@@ -6479,7 +7353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:I22"/>
   <sheetViews>
@@ -6487,25 +7361,25 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="9" width="86.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" customWidth="1"/>
-    <col min="15" max="26" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="2.5546875" customWidth="1"/>
+    <col min="9" max="9" width="86.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
+    <col min="15" max="26" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="133" t="s">
         <v>103</v>
       </c>
@@ -6517,7 +7391,7 @@
       <c r="H1" s="96"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
@@ -6527,7 +7401,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="83" t="s">
         <v>104</v>
       </c>
@@ -6548,7 +7422,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="74" t="s">
         <v>110</v>
       </c>
@@ -6563,7 +7437,7 @@
       <c r="G4" s="74"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="74" t="s">
         <v>111</v>
       </c>
@@ -6579,7 +7453,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="74" t="s">
         <v>112</v>
       </c>
@@ -6597,7 +7471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="74" t="s">
         <v>114</v>
       </c>
@@ -6615,7 +7489,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74" t="s">
         <v>116</v>
       </c>
@@ -6633,7 +7507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="74" t="s">
         <v>118</v>
       </c>
@@ -6651,7 +7525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="74" t="s">
         <v>120</v>
       </c>
@@ -6667,7 +7541,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="74" t="s">
         <v>121</v>
       </c>
@@ -6685,7 +7559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="74" t="s">
         <v>123</v>
       </c>
@@ -6703,7 +7577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="74" t="s">
         <v>125</v>
       </c>
@@ -6721,7 +7595,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="74" t="s">
         <v>127</v>
       </c>
@@ -6737,7 +7611,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="74" t="s">
         <v>128</v>
       </c>
@@ -6755,7 +7629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="74" t="s">
         <v>130</v>
       </c>
@@ -6773,7 +7647,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="74" t="s">
         <v>125</v>
       </c>
@@ -6791,7 +7665,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74" t="s">
         <v>133</v>
       </c>
@@ -6807,7 +7681,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="74" t="s">
         <v>134</v>
       </c>
@@ -6823,7 +7697,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
         <v>135</v>
       </c>
@@ -6839,7 +7713,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="74" t="s">
         <v>136</v>
       </c>
@@ -6855,7 +7729,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>137</v>
       </c>
@@ -6881,21 +7755,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF692B-A880-4BF8-B844-37D9F5C1CF15}">
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>138</v>
       </c>
@@ -6909,7 +7783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>142</v>
       </c>
@@ -6923,7 +7797,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="84" t="s">
         <v>146</v>
       </c>
@@ -6937,7 +7811,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>150</v>
       </c>
@@ -6961,7 +7835,7 @@
       <c r="R4" s="135"/>
       <c r="S4" s="136"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>155</v>
       </c>
@@ -6983,7 +7857,7 @@
       <c r="R5" s="138"/>
       <c r="S5" s="139"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>159</v>
       </c>
@@ -7005,7 +7879,7 @@
       <c r="R6" s="138"/>
       <c r="S6" s="139"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="84" t="s">
         <v>146</v>
       </c>
@@ -7027,7 +7901,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="139"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>165</v>
       </c>
@@ -7049,7 +7923,7 @@
       <c r="R8" s="138"/>
       <c r="S8" s="139"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
         <v>169</v>
       </c>
@@ -7071,7 +7945,7 @@
       <c r="R9" s="138"/>
       <c r="S9" s="139"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="84" t="s">
         <v>172</v>
       </c>
@@ -7093,7 +7967,7 @@
       <c r="R10" s="138"/>
       <c r="S10" s="139"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="84" t="s">
         <v>176</v>
       </c>
@@ -7115,7 +7989,7 @@
       <c r="R11" s="138"/>
       <c r="S11" s="139"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
         <v>150</v>
       </c>
@@ -7137,7 +8011,7 @@
       <c r="R12" s="138"/>
       <c r="S12" s="139"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="84" t="s">
         <v>182</v>
       </c>
@@ -7159,7 +8033,7 @@
       <c r="R13" s="138"/>
       <c r="S13" s="139"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>185</v>
       </c>
@@ -7181,7 +8055,7 @@
       <c r="R14" s="138"/>
       <c r="S14" s="139"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
         <v>189</v>
       </c>
@@ -7203,7 +8077,7 @@
       <c r="R15" s="138"/>
       <c r="S15" s="139"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>192</v>
       </c>
@@ -7225,7 +8099,7 @@
       <c r="R16" s="138"/>
       <c r="S16" s="139"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>196</v>
       </c>
@@ -7247,7 +8121,7 @@
       <c r="R17" s="138"/>
       <c r="S17" s="139"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
         <v>192</v>
       </c>
@@ -7269,7 +8143,7 @@
       <c r="R18" s="138"/>
       <c r="S18" s="139"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>146</v>
       </c>
@@ -7291,7 +8165,7 @@
       <c r="R19" s="138"/>
       <c r="S19" s="139"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>204</v>
       </c>
@@ -7313,7 +8187,7 @@
       <c r="R20" s="138"/>
       <c r="S20" s="139"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="84" t="s">
         <v>208</v>
       </c>
@@ -7335,7 +8209,7 @@
       <c r="R21" s="138"/>
       <c r="S21" s="139"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>150</v>
       </c>
@@ -7357,7 +8231,7 @@
       <c r="R22" s="138"/>
       <c r="S22" s="139"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
         <v>214</v>
       </c>
@@ -7379,7 +8253,7 @@
       <c r="R23" s="138"/>
       <c r="S23" s="139"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>217</v>
       </c>
@@ -7401,7 +8275,7 @@
       <c r="R24" s="138"/>
       <c r="S24" s="139"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
         <v>220</v>
       </c>
@@ -7423,7 +8297,7 @@
       <c r="R25" s="138"/>
       <c r="S25" s="139"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>142</v>
       </c>
@@ -7445,7 +8319,7 @@
       <c r="R26" s="138"/>
       <c r="S26" s="139"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>155</v>
       </c>
@@ -7467,7 +8341,7 @@
       <c r="R27" s="138"/>
       <c r="S27" s="139"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>142</v>
       </c>
@@ -7489,7 +8363,7 @@
       <c r="R28" s="138"/>
       <c r="S28" s="139"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>230</v>
       </c>
@@ -7511,7 +8385,7 @@
       <c r="R29" s="138"/>
       <c r="S29" s="139"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="84" t="s">
         <v>192</v>
       </c>
@@ -7533,7 +8407,7 @@
       <c r="R30" s="138"/>
       <c r="S30" s="139"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="84" t="s">
         <v>236</v>
       </c>
@@ -7555,7 +8429,7 @@
       <c r="R31" s="138"/>
       <c r="S31" s="139"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="84" t="s">
         <v>217</v>
       </c>
@@ -7577,7 +8451,7 @@
       <c r="R32" s="138"/>
       <c r="S32" s="139"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="84" t="s">
         <v>230</v>
       </c>
@@ -7599,7 +8473,7 @@
       <c r="R33" s="138"/>
       <c r="S33" s="139"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>185</v>
       </c>
@@ -7621,7 +8495,7 @@
       <c r="R34" s="138"/>
       <c r="S34" s="139"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>248</v>
       </c>
@@ -7643,7 +8517,7 @@
       <c r="R35" s="138"/>
       <c r="S35" s="139"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="84" t="s">
         <v>217</v>
       </c>
@@ -7665,7 +8539,7 @@
       <c r="R36" s="138"/>
       <c r="S36" s="139"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="84" t="s">
         <v>208</v>
       </c>
@@ -7687,7 +8561,7 @@
       <c r="R37" s="138"/>
       <c r="S37" s="139"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="84" t="s">
         <v>258</v>
       </c>
@@ -7709,7 +8583,7 @@
       <c r="R38" s="138"/>
       <c r="S38" s="139"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>262</v>
       </c>
@@ -7731,7 +8605,7 @@
       <c r="R39" s="138"/>
       <c r="S39" s="139"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
         <v>265</v>
       </c>
@@ -7753,7 +8627,7 @@
       <c r="R40" s="138"/>
       <c r="S40" s="139"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="84" t="s">
         <v>189</v>
       </c>
@@ -7775,7 +8649,7 @@
       <c r="R41" s="138"/>
       <c r="S41" s="139"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="84" t="s">
         <v>217</v>
       </c>
@@ -7797,7 +8671,7 @@
       <c r="R42" s="138"/>
       <c r="S42" s="139"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="84" t="s">
         <v>146</v>
       </c>
@@ -7819,7 +8693,7 @@
       <c r="R43" s="138"/>
       <c r="S43" s="139"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="84" t="s">
         <v>276</v>
       </c>
@@ -7841,7 +8715,7 @@
       <c r="R44" s="138"/>
       <c r="S44" s="139"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="84" t="s">
         <v>182</v>
       </c>
@@ -7863,7 +8737,7 @@
       <c r="R45" s="138"/>
       <c r="S45" s="139"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>282</v>
       </c>
@@ -7885,7 +8759,7 @@
       <c r="R46" s="138"/>
       <c r="S46" s="139"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="84" t="s">
         <v>208</v>
       </c>
@@ -7907,7 +8781,7 @@
       <c r="R47" s="138"/>
       <c r="S47" s="139"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>289</v>
       </c>
@@ -7929,7 +8803,7 @@
       <c r="R48" s="138"/>
       <c r="S48" s="139"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="84" t="s">
         <v>292</v>
       </c>
@@ -7951,7 +8825,7 @@
       <c r="R49" s="138"/>
       <c r="S49" s="139"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>295</v>
       </c>
@@ -7973,7 +8847,7 @@
       <c r="R50" s="138"/>
       <c r="S50" s="139"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="s">
         <v>230</v>
       </c>
@@ -7995,7 +8869,7 @@
       <c r="R51" s="138"/>
       <c r="S51" s="139"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>165</v>
       </c>
@@ -8017,7 +8891,7 @@
       <c r="R52" s="138"/>
       <c r="S52" s="139"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="84" t="s">
         <v>262</v>
       </c>
@@ -8039,7 +8913,7 @@
       <c r="R53" s="138"/>
       <c r="S53" s="139"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="84" t="s">
         <v>289</v>
       </c>
@@ -8061,7 +8935,7 @@
       <c r="R54" s="138"/>
       <c r="S54" s="139"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="84" t="s">
         <v>236</v>
       </c>
@@ -8083,7 +8957,7 @@
       <c r="R55" s="138"/>
       <c r="S55" s="139"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="84" t="s">
         <v>165</v>
       </c>
@@ -8105,7 +8979,7 @@
       <c r="R56" s="138"/>
       <c r="S56" s="139"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="84" t="s">
         <v>312</v>
       </c>
@@ -8127,7 +9001,7 @@
       <c r="R57" s="138"/>
       <c r="S57" s="139"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="84" t="s">
         <v>217</v>
       </c>
@@ -8149,7 +9023,7 @@
       <c r="R58" s="138"/>
       <c r="S58" s="139"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="84" t="s">
         <v>146</v>
       </c>
@@ -8171,7 +9045,7 @@
       <c r="R59" s="138"/>
       <c r="S59" s="139"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="84" t="s">
         <v>265</v>
       </c>
@@ -8193,7 +9067,7 @@
       <c r="R60" s="138"/>
       <c r="S60" s="139"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="84" t="s">
         <v>322</v>
       </c>
@@ -8215,7 +9089,7 @@
       <c r="R61" s="138"/>
       <c r="S61" s="139"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="84" t="s">
         <v>185</v>
       </c>
@@ -8237,7 +9111,7 @@
       <c r="R62" s="138"/>
       <c r="S62" s="139"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="84" t="s">
         <v>230</v>
       </c>
@@ -8259,7 +9133,7 @@
       <c r="R63" s="138"/>
       <c r="S63" s="139"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="84" t="s">
         <v>330</v>
       </c>
@@ -8281,7 +9155,7 @@
       <c r="R64" s="138"/>
       <c r="S64" s="139"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="84" t="s">
         <v>248</v>
       </c>
@@ -8303,7 +9177,7 @@
       <c r="R65" s="138"/>
       <c r="S65" s="139"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="84" t="s">
         <v>192</v>
       </c>
@@ -8325,7 +9199,7 @@
       <c r="R66" s="138"/>
       <c r="S66" s="139"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="84" t="s">
         <v>176</v>
       </c>
@@ -8347,7 +9221,7 @@
       <c r="R67" s="138"/>
       <c r="S67" s="139"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="84" t="s">
         <v>204</v>
       </c>
@@ -8369,7 +9243,7 @@
       <c r="R68" s="138"/>
       <c r="S68" s="139"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
         <v>196</v>
       </c>
@@ -8391,7 +9265,7 @@
       <c r="R69" s="138"/>
       <c r="S69" s="139"/>
     </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="84" t="s">
         <v>276</v>
       </c>
@@ -8413,7 +9287,7 @@
       <c r="R70" s="141"/>
       <c r="S70" s="142"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="84" t="s">
         <v>312</v>
       </c>
@@ -8427,7 +9301,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="84" t="s">
         <v>295</v>
       </c>
@@ -8441,7 +9315,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="84" t="s">
         <v>182</v>
       </c>
@@ -8455,7 +9329,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="84" t="s">
         <v>295</v>
       </c>
@@ -8469,7 +9343,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="84" t="s">
         <v>220</v>
       </c>
@@ -8483,7 +9357,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="84" t="s">
         <v>295</v>
       </c>
@@ -8497,7 +9371,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="84" t="s">
         <v>155</v>
       </c>
@@ -8511,7 +9385,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>289</v>
       </c>
@@ -8525,7 +9399,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="84" t="s">
         <v>362</v>
       </c>
@@ -8539,7 +9413,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="84" t="s">
         <v>142</v>
       </c>
@@ -8553,7 +9427,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="84" t="s">
         <v>220</v>
       </c>
@@ -8567,7 +9441,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="84" t="s">
         <v>192</v>
       </c>
@@ -8581,7 +9455,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="84" t="s">
         <v>248</v>
       </c>
@@ -8595,7 +9469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="84" t="s">
         <v>295</v>
       </c>
@@ -8609,7 +9483,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="84" t="s">
         <v>362</v>
       </c>
@@ -8623,7 +9497,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="84" t="s">
         <v>185</v>
       </c>
@@ -8637,7 +9511,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="84" t="s">
         <v>176</v>
       </c>
@@ -8651,7 +9525,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="84" t="s">
         <v>295</v>
       </c>
@@ -8665,7 +9539,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="84" t="s">
         <v>384</v>
       </c>
@@ -8679,7 +9553,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="84" t="s">
         <v>330</v>
       </c>
@@ -8693,7 +9567,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="84" t="s">
         <v>262</v>
       </c>
@@ -8707,7 +9581,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="84" t="s">
         <v>258</v>
       </c>
@@ -8721,7 +9595,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="84" t="s">
         <v>322</v>
       </c>
@@ -8735,7 +9609,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="84" t="s">
         <v>276</v>
       </c>
@@ -8749,7 +9623,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="84" t="s">
         <v>169</v>
       </c>
@@ -8763,7 +9637,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="84" t="s">
         <v>330</v>
       </c>
@@ -8777,7 +9651,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="84" t="s">
         <v>248</v>
       </c>
@@ -8791,7 +9665,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="84" t="s">
         <v>289</v>
       </c>
@@ -8805,7 +9679,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="84" t="s">
         <v>146</v>
       </c>
@@ -8819,7 +9693,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="84" t="s">
         <v>159</v>
       </c>
@@ -8833,7 +9707,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="84" t="s">
         <v>362</v>
       </c>
@@ -8847,7 +9721,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="84" t="s">
         <v>276</v>
       </c>
@@ -8861,7 +9735,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="84" t="s">
         <v>230</v>
       </c>
@@ -8875,7 +9749,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="84" t="s">
         <v>282</v>
       </c>
@@ -8889,7 +9763,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="84" t="s">
         <v>208</v>
       </c>
@@ -8903,7 +9777,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="84" t="s">
         <v>150</v>
       </c>
@@ -8917,7 +9791,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="84" t="s">
         <v>312</v>
       </c>
@@ -8931,7 +9805,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="84" t="s">
         <v>159</v>
       </c>
@@ -8945,7 +9819,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="84" t="s">
         <v>208</v>
       </c>
@@ -8959,7 +9833,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="84" t="s">
         <v>172</v>
       </c>
@@ -8973,7 +9847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="84" t="s">
         <v>384</v>
       </c>
@@ -8987,7 +9861,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
         <v>436</v>
       </c>
@@ -9001,7 +9875,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="84" t="s">
         <v>439</v>
       </c>
@@ -9015,7 +9889,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="84" t="s">
         <v>442</v>
       </c>
@@ -9029,7 +9903,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="84" t="s">
         <v>248</v>
       </c>
@@ -9043,7 +9917,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="84" t="s">
         <v>258</v>
       </c>
@@ -9057,7 +9931,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="84" t="s">
         <v>155</v>
       </c>
@@ -9071,7 +9945,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="84" t="s">
         <v>142</v>
       </c>
@@ -9085,7 +9959,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="84" t="s">
         <v>384</v>
       </c>
@@ -9099,7 +9973,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="84" t="s">
         <v>165</v>
       </c>
@@ -9113,7 +9987,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="84" t="s">
         <v>176</v>
       </c>
@@ -9127,7 +10001,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="84" t="s">
         <v>459</v>
       </c>
@@ -9141,7 +10015,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="84" t="s">
         <v>196</v>
       </c>
@@ -9155,7 +10029,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="84" t="s">
         <v>464</v>
       </c>
@@ -9169,7 +10043,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="84" t="s">
         <v>230</v>
       </c>
@@ -9183,7 +10057,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="84" t="s">
         <v>185</v>
       </c>
@@ -9197,7 +10071,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="84" t="s">
         <v>230</v>
       </c>
@@ -9211,7 +10085,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="84" t="s">
         <v>295</v>
       </c>
@@ -9225,7 +10099,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="84" t="s">
         <v>230</v>
       </c>
@@ -9239,7 +10113,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="84" t="s">
         <v>265</v>
       </c>
@@ -9253,7 +10127,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="84" t="s">
         <v>322</v>
       </c>
@@ -9267,7 +10141,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="84" t="s">
         <v>289</v>
       </c>
@@ -9281,7 +10155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="84" t="s">
         <v>155</v>
       </c>
@@ -9295,7 +10169,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="84" t="s">
         <v>217</v>
       </c>
@@ -9309,7 +10183,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="84" t="s">
         <v>182</v>
       </c>
@@ -9323,7 +10197,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="84" t="s">
         <v>295</v>
       </c>
@@ -9337,7 +10211,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="84" t="s">
         <v>292</v>
       </c>
@@ -9351,7 +10225,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="84" t="s">
         <v>204</v>
       </c>
@@ -9365,7 +10239,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="84" t="s">
         <v>384</v>
       </c>
@@ -9379,7 +10253,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="84" t="s">
         <v>442</v>
       </c>
@@ -9393,7 +10267,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="84" t="s">
         <v>208</v>
       </c>
@@ -9407,7 +10281,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="84" t="s">
         <v>295</v>
       </c>
@@ -9421,7 +10295,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="84" t="s">
         <v>322</v>
       </c>
@@ -9435,7 +10309,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="84" t="s">
         <v>165</v>
       </c>
@@ -9449,7 +10323,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="84" t="s">
         <v>262</v>
       </c>
@@ -9463,7 +10337,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="84" t="s">
         <v>442</v>
       </c>
@@ -9477,7 +10351,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="84" t="s">
         <v>362</v>
       </c>
@@ -9491,7 +10365,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="84" t="s">
         <v>142</v>
       </c>
@@ -9505,7 +10379,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="84" t="s">
         <v>169</v>
       </c>
@@ -9519,7 +10393,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="84" t="s">
         <v>282</v>
       </c>
@@ -9533,7 +10407,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="84" t="s">
         <v>169</v>
       </c>
@@ -9547,7 +10421,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="84" t="s">
         <v>192</v>
       </c>
@@ -9561,7 +10435,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="84" t="s">
         <v>248</v>
       </c>
@@ -9575,7 +10449,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="84" t="s">
         <v>172</v>
       </c>
@@ -9589,7 +10463,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="84" t="s">
         <v>230</v>
       </c>
@@ -9603,7 +10477,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="84" t="s">
         <v>295</v>
       </c>
@@ -9617,7 +10491,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="84" t="s">
         <v>169</v>
       </c>
@@ -9631,7 +10505,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="84" t="s">
         <v>436</v>
       </c>
@@ -9645,7 +10519,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="84" t="s">
         <v>146</v>
       </c>
@@ -9659,7 +10533,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="84" t="s">
         <v>464</v>
       </c>
@@ -9673,7 +10547,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="84" t="s">
         <v>262</v>
       </c>
@@ -9687,7 +10561,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="84" t="s">
         <v>172</v>
       </c>
@@ -9701,7 +10575,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="84" t="s">
         <v>292</v>
       </c>
@@ -9715,7 +10589,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="84" t="s">
         <v>258</v>
       </c>
@@ -9729,7 +10603,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="84" t="s">
         <v>189</v>
       </c>
@@ -9743,7 +10617,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="84" t="s">
         <v>217</v>
       </c>
@@ -9757,7 +10631,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="84" t="s">
         <v>196</v>
       </c>
@@ -9771,7 +10645,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="84" t="s">
         <v>165</v>
       </c>
@@ -9785,7 +10659,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="84" t="s">
         <v>262</v>
       </c>
@@ -9799,7 +10673,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="84" t="s">
         <v>282</v>
       </c>
@@ -9813,7 +10687,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="84" t="s">
         <v>322</v>
       </c>
@@ -9827,7 +10701,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="84" t="s">
         <v>165</v>
       </c>
@@ -9841,7 +10715,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="84" t="s">
         <v>230</v>
       </c>
@@ -9855,7 +10729,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="84" t="s">
         <v>459</v>
       </c>
@@ -9869,7 +10743,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="84" t="s">
         <v>208</v>
       </c>
@@ -9883,7 +10757,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="84" t="s">
         <v>295</v>
       </c>
@@ -9897,7 +10771,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="84" t="s">
         <v>196</v>
       </c>
@@ -9911,7 +10785,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="84" t="s">
         <v>436</v>
       </c>
@@ -9925,7 +10799,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="84" t="s">
         <v>214</v>
       </c>
@@ -9939,7 +10813,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="84" t="s">
         <v>464</v>
       </c>
@@ -9953,7 +10827,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="84" t="s">
         <v>312</v>
       </c>
@@ -9967,7 +10841,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="84" t="s">
         <v>289</v>
       </c>
@@ -9981,7 +10855,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="84" t="s">
         <v>220</v>
       </c>
@@ -9995,7 +10869,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="84" t="s">
         <v>330</v>
       </c>
@@ -10009,7 +10883,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="84" t="s">
         <v>169</v>
       </c>
@@ -10023,7 +10897,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="84" t="s">
         <v>159</v>
       </c>
@@ -10037,7 +10911,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="84" t="s">
         <v>214</v>
       </c>
@@ -10051,7 +10925,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="84" t="s">
         <v>330</v>
       </c>
@@ -10065,7 +10939,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="84" t="s">
         <v>292</v>
       </c>
@@ -10079,7 +10953,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="84" t="s">
         <v>150</v>
       </c>
@@ -10093,7 +10967,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="84" t="s">
         <v>146</v>
       </c>
@@ -10107,7 +10981,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="84" t="s">
         <v>459</v>
       </c>
@@ -10121,7 +10995,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="84" t="s">
         <v>312</v>
       </c>
@@ -10135,7 +11009,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="84" t="s">
         <v>442</v>
       </c>
@@ -10149,7 +11023,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="84" t="s">
         <v>312</v>
       </c>
@@ -10163,7 +11037,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="84" t="s">
         <v>159</v>
       </c>
@@ -10177,7 +11051,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="84" t="s">
         <v>230</v>
       </c>
@@ -10191,7 +11065,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="84" t="s">
         <v>289</v>
       </c>
@@ -10205,7 +11079,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="84" t="s">
         <v>362</v>
       </c>
@@ -10219,7 +11093,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="84" t="s">
         <v>265</v>
       </c>
@@ -10233,7 +11107,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="84" t="s">
         <v>169</v>
       </c>
@@ -10247,7 +11121,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="84" t="s">
         <v>442</v>
       </c>
@@ -10261,7 +11135,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="84" t="s">
         <v>262</v>
       </c>
@@ -10275,7 +11149,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="84" t="s">
         <v>150</v>
       </c>
@@ -10289,7 +11163,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="84" t="s">
         <v>236</v>
       </c>
@@ -10303,7 +11177,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="84" t="s">
         <v>442</v>
       </c>
@@ -10317,7 +11191,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="84" t="s">
         <v>155</v>
       </c>
@@ -10331,7 +11205,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="84" t="s">
         <v>217</v>
       </c>
@@ -10345,7 +11219,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="84" t="s">
         <v>292</v>
       </c>
@@ -10359,7 +11233,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="84" t="s">
         <v>165</v>
       </c>
@@ -10373,7 +11247,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="84" t="s">
         <v>196</v>
       </c>
@@ -10387,7 +11261,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="84" t="s">
         <v>459</v>
       </c>
@@ -10401,7 +11275,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="84" t="s">
         <v>312</v>
       </c>
@@ -10415,7 +11289,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="84" t="s">
         <v>142</v>
       </c>
@@ -10429,7 +11303,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="84" t="s">
         <v>292</v>
       </c>
@@ -10443,7 +11317,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="84" t="s">
         <v>142</v>
       </c>
@@ -10457,7 +11331,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="84" t="s">
         <v>384</v>
       </c>
@@ -10471,7 +11345,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="84" t="s">
         <v>459</v>
       </c>
@@ -10485,7 +11359,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="84" t="s">
         <v>189</v>
       </c>
@@ -10499,7 +11373,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="84" t="s">
         <v>142</v>
       </c>
@@ -10513,7 +11387,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="84" t="s">
         <v>312</v>
       </c>
@@ -10527,7 +11401,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="84" t="s">
         <v>258</v>
       </c>
@@ -10541,7 +11415,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="84" t="s">
         <v>196</v>
       </c>
@@ -10555,7 +11429,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="84" t="s">
         <v>464</v>
       </c>
@@ -10569,7 +11443,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="84" t="s">
         <v>196</v>
       </c>
@@ -10583,7 +11457,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="84" t="s">
         <v>276</v>
       </c>
@@ -10597,7 +11471,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="84" t="s">
         <v>189</v>
       </c>
@@ -10611,7 +11485,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="84" t="s">
         <v>258</v>
       </c>
@@ -10625,7 +11499,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="84" t="s">
         <v>169</v>
       </c>
@@ -10639,7 +11513,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="84" t="s">
         <v>185</v>
       </c>
@@ -10653,7 +11527,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="84" t="s">
         <v>208</v>
       </c>
@@ -10667,7 +11541,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="84" t="s">
         <v>258</v>
       </c>
@@ -10681,7 +11555,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="84" t="s">
         <v>230</v>
       </c>
@@ -10695,7 +11569,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="84" t="s">
         <v>295</v>
       </c>
@@ -10709,7 +11583,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="84" t="s">
         <v>384</v>
       </c>
@@ -10723,7 +11597,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="84" t="s">
         <v>204</v>
       </c>
@@ -10737,7 +11611,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="84" t="s">
         <v>292</v>
       </c>
@@ -10751,7 +11625,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="84" t="s">
         <v>436</v>
       </c>
@@ -10765,7 +11639,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="84" t="s">
         <v>169</v>
       </c>
@@ -10779,7 +11653,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="84" t="s">
         <v>165</v>
       </c>
@@ -10793,7 +11667,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="84" t="s">
         <v>169</v>
       </c>
@@ -10807,7 +11681,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="84" t="s">
         <v>185</v>
       </c>
@@ -10821,7 +11695,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="84" t="s">
         <v>439</v>
       </c>
@@ -10835,7 +11709,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="84" t="s">
         <v>150</v>
       </c>
@@ -10849,7 +11723,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="84" t="s">
         <v>292</v>
       </c>
@@ -10863,7 +11737,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="84" t="s">
         <v>185</v>
       </c>
@@ -10877,7 +11751,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="84" t="s">
         <v>155</v>
       </c>
@@ -10891,7 +11765,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="84" t="s">
         <v>282</v>
       </c>
@@ -10905,7 +11779,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="84" t="s">
         <v>236</v>
       </c>
@@ -10919,7 +11793,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="84" t="s">
         <v>192</v>
       </c>
@@ -10933,7 +11807,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="84" t="s">
         <v>362</v>
       </c>
@@ -10947,7 +11821,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="84" t="s">
         <v>185</v>
       </c>
@@ -10961,7 +11835,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="84" t="s">
         <v>292</v>
       </c>
@@ -10975,7 +11849,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="84" t="s">
         <v>258</v>
       </c>
@@ -10989,7 +11863,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="84" t="s">
         <v>176</v>
       </c>
@@ -11003,7 +11877,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="84" t="s">
         <v>289</v>
       </c>
@@ -11017,7 +11891,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="84" t="s">
         <v>182</v>
       </c>
@@ -11031,7 +11905,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="84" t="s">
         <v>464</v>
       </c>
@@ -11045,7 +11919,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="84" t="s">
         <v>322</v>
       </c>
@@ -11059,7 +11933,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="84" t="s">
         <v>172</v>
       </c>
@@ -11073,7 +11947,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="84" t="s">
         <v>146</v>
       </c>
@@ -11087,7 +11961,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="84" t="s">
         <v>142</v>
       </c>
@@ -11101,7 +11975,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="84" t="s">
         <v>384</v>
       </c>
@@ -11115,7 +11989,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="84" t="s">
         <v>459</v>
       </c>
@@ -11129,7 +12003,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="84" t="s">
         <v>182</v>
       </c>
@@ -11143,7 +12017,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="84" t="s">
         <v>217</v>
       </c>
@@ -11157,7 +12031,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="84" t="s">
         <v>146</v>
       </c>
@@ -11171,7 +12045,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="84" t="s">
         <v>265</v>
       </c>
@@ -11185,7 +12059,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="84" t="s">
         <v>248</v>
       </c>
@@ -11199,7 +12073,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="84" t="s">
         <v>185</v>
       </c>
@@ -11213,7 +12087,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="84" t="s">
         <v>208</v>
       </c>
@@ -11227,7 +12101,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="84" t="s">
         <v>442</v>
       </c>
@@ -11241,7 +12115,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="84" t="s">
         <v>439</v>
       </c>
@@ -11255,7 +12129,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="84" t="s">
         <v>289</v>
       </c>
@@ -11269,7 +12143,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="84" t="s">
         <v>362</v>
       </c>
@@ -11283,7 +12157,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="84" t="s">
         <v>185</v>
       </c>
@@ -11297,7 +12171,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="84" t="s">
         <v>292</v>
       </c>
@@ -11311,7 +12185,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="84" t="s">
         <v>276</v>
       </c>
@@ -11325,7 +12199,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="84" t="s">
         <v>182</v>
       </c>
@@ -11339,7 +12213,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="84" t="s">
         <v>464</v>
       </c>
@@ -11353,7 +12227,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="84" t="s">
         <v>214</v>
       </c>
@@ -11367,7 +12241,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="84" t="s">
         <v>204</v>
       </c>
@@ -11381,7 +12255,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="84" t="s">
         <v>189</v>
       </c>
@@ -11395,7 +12269,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="84" t="s">
         <v>142</v>
       </c>
@@ -11409,7 +12283,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="84" t="s">
         <v>248</v>
       </c>
@@ -11423,7 +12297,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="84" t="s">
         <v>258</v>
       </c>
@@ -11437,7 +12311,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="84" t="s">
         <v>362</v>
       </c>
@@ -11451,7 +12325,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="84" t="s">
         <v>172</v>
       </c>
@@ -11465,7 +12339,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="84" t="s">
         <v>312</v>
       </c>
@@ -11479,7 +12353,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="84" t="s">
         <v>258</v>
       </c>
@@ -11493,7 +12367,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="84" t="s">
         <v>439</v>
       </c>
@@ -11507,7 +12381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="84" t="s">
         <v>442</v>
       </c>
@@ -11521,7 +12395,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="84" t="s">
         <v>312</v>
       </c>
@@ -11535,7 +12409,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="84" t="s">
         <v>185</v>
       </c>
@@ -11549,7 +12423,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="84" t="s">
         <v>384</v>
       </c>
@@ -11563,7 +12437,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="84" t="s">
         <v>142</v>
       </c>
@@ -11577,7 +12451,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="84" t="s">
         <v>182</v>
       </c>
@@ -11591,7 +12465,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="84" t="s">
         <v>258</v>
       </c>
@@ -11605,7 +12479,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="84" t="s">
         <v>230</v>
       </c>
@@ -11619,7 +12493,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="84" t="s">
         <v>330</v>
       </c>
@@ -11633,7 +12507,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="84" t="s">
         <v>208</v>
       </c>
@@ -11655,7 +12529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:BQ90"/>
   <sheetViews>
@@ -11663,17 +12537,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="69" width="9.140625" customWidth="1"/>
+    <col min="6" max="69" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="27" t="s">
         <v>820</v>
       </c>
@@ -11745,7 +12619,7 @@
       <c r="BP1" s="20"/>
       <c r="BQ1" s="20"/>
     </row>
-    <row r="2" spans="2:69" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:69" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="88"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -11815,7 +12689,7 @@
       <c r="BP2" s="20"/>
       <c r="BQ2" s="20"/>
     </row>
-    <row r="3" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="90"/>
       <c r="C3" s="28" t="s">
         <v>821</v>
@@ -11889,7 +12763,7 @@
       <c r="BP3" s="20"/>
       <c r="BQ3" s="20"/>
     </row>
-    <row r="4" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="90"/>
       <c r="C4" s="30" t="s">
         <v>105</v>
@@ -11963,7 +12837,7 @@
       <c r="BP4" s="20"/>
       <c r="BQ4" s="20"/>
     </row>
-    <row r="5" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="90"/>
       <c r="C5" s="31" t="s">
         <v>822</v>
@@ -12035,7 +12909,7 @@
       <c r="BP5" s="20"/>
       <c r="BQ5" s="20"/>
     </row>
-    <row r="6" spans="2:69" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:69" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="91"/>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -12105,7 +12979,7 @@
       <c r="BP6" s="20"/>
       <c r="BQ6" s="20"/>
     </row>
-    <row r="7" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -12175,7 +13049,7 @@
       <c r="BP7" s="20"/>
       <c r="BQ7" s="20"/>
     </row>
-    <row r="8" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -12245,7 +13119,7 @@
       <c r="BP8" s="20"/>
       <c r="BQ8" s="20"/>
     </row>
-    <row r="9" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>823</v>
       </c>
@@ -12317,7 +13191,7 @@
       <c r="BP9" s="20"/>
       <c r="BQ9" s="20"/>
     </row>
-    <row r="10" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>824</v>
       </c>
@@ -12513,7 +13387,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="11" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38">
         <v>0</v>
       </c>
@@ -12709,7 +13583,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="12" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38">
         <v>1</v>
       </c>
@@ -12905,7 +13779,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="13" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38">
         <v>2</v>
       </c>
@@ -13101,7 +13975,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="14" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
         <v>3</v>
       </c>
@@ -13297,7 +14171,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="15" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38">
         <v>4</v>
       </c>
@@ -13493,7 +14367,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="16" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="38">
         <v>5</v>
       </c>
@@ -13689,7 +14563,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="17" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="38">
         <v>6</v>
       </c>
@@ -13885,7 +14759,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="18" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="38">
         <v>7</v>
       </c>
@@ -14081,7 +14955,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="19" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38">
         <v>8</v>
       </c>
@@ -14277,7 +15151,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="20" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="38">
         <v>9</v>
       </c>
@@ -14471,7 +15345,7 @@
       <c r="BP20" s="20"/>
       <c r="BQ20" s="20"/>
     </row>
-    <row r="21" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="38">
         <v>10</v>
       </c>
@@ -14665,7 +15539,7 @@
       <c r="BP21" s="20"/>
       <c r="BQ21" s="20"/>
     </row>
-    <row r="22" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38">
         <v>11</v>
       </c>
@@ -14859,7 +15733,7 @@
       <c r="BP22" s="20"/>
       <c r="BQ22" s="20"/>
     </row>
-    <row r="23" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38">
         <v>12</v>
       </c>
@@ -15053,7 +15927,7 @@
       <c r="BP23" s="20"/>
       <c r="BQ23" s="20"/>
     </row>
-    <row r="24" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="38">
         <v>13</v>
       </c>
@@ -15247,7 +16121,7 @@
       <c r="BP24" s="20"/>
       <c r="BQ24" s="20"/>
     </row>
-    <row r="25" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="38">
         <v>14</v>
       </c>
@@ -15441,7 +16315,7 @@
       <c r="BP25" s="20"/>
       <c r="BQ25" s="20"/>
     </row>
-    <row r="26" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="38">
         <v>15</v>
       </c>
@@ -15635,7 +16509,7 @@
       <c r="BP26" s="20"/>
       <c r="BQ26" s="20"/>
     </row>
-    <row r="27" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="38">
         <v>16</v>
       </c>
@@ -15829,7 +16703,7 @@
       <c r="BP27" s="20"/>
       <c r="BQ27" s="20"/>
     </row>
-    <row r="28" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="38">
         <v>17</v>
       </c>
@@ -16023,7 +16897,7 @@
       <c r="BP28" s="20"/>
       <c r="BQ28" s="20"/>
     </row>
-    <row r="29" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="38">
         <v>18</v>
       </c>
@@ -16217,7 +17091,7 @@
       <c r="BP29" s="20"/>
       <c r="BQ29" s="20"/>
     </row>
-    <row r="30" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="38">
         <v>19</v>
       </c>
@@ -16411,7 +17285,7 @@
       <c r="BP30" s="20"/>
       <c r="BQ30" s="20"/>
     </row>
-    <row r="31" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="38">
         <v>20</v>
       </c>
@@ -16605,7 +17479,7 @@
       <c r="BP31" s="20"/>
       <c r="BQ31" s="20"/>
     </row>
-    <row r="32" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="38">
         <v>21</v>
       </c>
@@ -16799,7 +17673,7 @@
       <c r="BP32" s="20"/>
       <c r="BQ32" s="20"/>
     </row>
-    <row r="33" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="38">
         <v>22</v>
       </c>
@@ -16987,7 +17861,7 @@
         <v>3.1092825041024969E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="38">
         <v>23</v>
       </c>
@@ -17175,7 +18049,7 @@
         <v>3.0794989797530464E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="38">
         <v>24</v>
       </c>
@@ -17363,7 +18237,7 @@
         <v>3.0556416666025242E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="38">
         <v>25</v>
       </c>
@@ -17551,7 +18425,7 @@
         <v>3.0063144070275352E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="38">
         <v>26</v>
       </c>
@@ -17739,7 +18613,7 @@
         <v>2.9929718276761036E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="38">
         <v>27</v>
       </c>
@@ -17927,7 +18801,7 @@
         <v>3.125180515770417E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="38">
         <v>28</v>
       </c>
@@ -18115,7 +18989,7 @@
         <v>3.4523207624386648E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
         <v>29</v>
       </c>
@@ -18303,7 +19177,7 @@
         <v>3.9213033923130892E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="38">
         <v>30</v>
       </c>
@@ -18491,7 +19365,7 @@
         <v>4.4925974288473921E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="38">
         <v>31</v>
       </c>
@@ -18679,7 +19553,7 @@
         <v>5.0431198538366411E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
         <v>32</v>
       </c>
@@ -18867,7 +19741,7 @@
         <v>5.465880119012611E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38">
         <v>33</v>
       </c>
@@ -19055,7 +19929,7 @@
         <v>5.6922835253224511E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="38">
         <v>34</v>
       </c>
@@ -19243,7 +20117,7 @@
         <v>5.8006604449877279E-4</v>
       </c>
     </row>
-    <row r="46" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="38">
         <v>35</v>
       </c>
@@ -19431,7 +20305,7 @@
         <v>5.8784422055716858E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="38">
         <v>36</v>
       </c>
@@ -19619,7 +20493,7 @@
         <v>6.0824027484142665E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="38">
         <v>37</v>
       </c>
@@ -19807,7 +20681,7 @@
         <v>6.516759314452033E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="38">
         <v>38</v>
       </c>
@@ -19995,7 +20869,7 @@
         <v>7.2644749128419797E-4</v>
       </c>
     </row>
-    <row r="50" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="38">
         <v>39</v>
       </c>
@@ -20183,7 +21057,7 @@
         <v>8.2505653020934118E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="38">
         <v>40</v>
       </c>
@@ -20371,7 +21245,7 @@
         <v>9.3877504531953283E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="38">
         <v>41</v>
       </c>
@@ -20559,7 +21433,7 @@
         <v>1.0518694590341052E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="38">
         <v>42</v>
       </c>
@@ -20747,7 +21621,7 @@
         <v>1.154520942120784E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="38">
         <v>43</v>
       </c>
@@ -20935,7 +21809,7 @@
         <v>1.2388923295645147E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="38">
         <v>44</v>
       </c>
@@ -21123,7 +21997,7 @@
         <v>1.3136900355997323E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="38">
         <v>45</v>
       </c>
@@ -21311,7 +22185,7 @@
         <v>1.397194346399767E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="38">
         <v>46</v>
       </c>
@@ -21499,7 +22373,7 @@
         <v>1.5004224954684726E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="38">
         <v>47</v>
       </c>
@@ -21687,7 +22561,7 @@
         <v>1.6196025108220226E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="38">
         <v>48</v>
       </c>
@@ -21875,7 +22749,7 @@
         <v>1.7586519829871779E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="38">
         <v>49</v>
       </c>
@@ -22063,7 +22937,7 @@
         <v>1.9195081748428489E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="38">
         <v>50</v>
       </c>
@@ -22251,7 +23125,7 @@
         <v>2.0985901396380169E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="38">
         <v>51</v>
       </c>
@@ -22439,7 +23313,7 @@
         <v>2.3011154372164261E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="38">
         <v>52</v>
       </c>
@@ -22627,7 +23501,7 @@
         <v>2.5387770222638751E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="38">
         <v>53</v>
       </c>
@@ -22815,7 +23689,7 @@
         <v>2.8172182743364358E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="38">
         <v>54</v>
       </c>
@@ -23003,7 +23877,7 @@
         <v>3.134215594159205E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="38">
         <v>55</v>
       </c>
@@ -23191,7 +24065,7 @@
         <v>3.4917378948056315E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="38">
         <v>56</v>
       </c>
@@ -23379,7 +24253,7 @@
         <v>3.8799460112975263E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="38">
         <v>57</v>
       </c>
@@ -23567,7 +24441,7 @@
         <v>4.2870287076874868E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="38">
         <v>58</v>
       </c>
@@ -23755,7 +24629,7 @@
         <v>4.7077573706980928E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="38">
         <v>59</v>
       </c>
@@ -23943,7 +24817,7 @@
         <v>5.1543298450809644E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="38">
         <v>60</v>
       </c>
@@ -24131,7 +25005,7 @@
         <v>5.6458483912430754E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="38">
         <v>61</v>
       </c>
@@ -24319,7 +25193,7 @@
         <v>6.2006407775027379E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="38">
         <v>62</v>
       </c>
@@ -24507,7 +25381,7 @@
         <v>6.8255080043727653E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="38">
         <v>63</v>
       </c>
@@ -24695,7 +25569,7 @@
         <v>7.5316209746165057E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="38">
         <v>64</v>
       </c>
@@ -24883,7 +25757,7 @@
         <v>8.3219859408216971E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="38">
         <v>65</v>
       </c>
@@ -25071,7 +25945,7 @@
         <v>9.191875950300939E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="38">
         <v>66</v>
       </c>
@@ -25259,7 +26133,7 @@
         <v>1.0147177386422941E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="38">
         <v>67</v>
       </c>
@@ -25447,7 +26321,7 @@
         <v>1.1206120932543239E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="38">
         <v>68</v>
       </c>
@@ -25635,7 +26509,7 @@
         <v>1.2380104317963856E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="38">
         <v>69</v>
       </c>
@@ -25823,7 +26697,7 @@
         <v>1.3676705631632091E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="38">
         <v>70</v>
       </c>
@@ -26011,7 +26885,7 @@
         <v>1.5163058610513792E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="38">
         <v>71</v>
       </c>
@@ -26199,7 +27073,7 @@
         <v>1.6804634294480855E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="38">
         <v>72</v>
       </c>
@@ -26387,7 +27261,7 @@
         <v>1.8504922968684528E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="38">
         <v>73</v>
       </c>
@@ -26575,7 +27449,7 @@
         <v>2.0234573602826832E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="38">
         <v>74</v>
       </c>
@@ -26763,7 +27637,7 @@
         <v>2.2085965455593968E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="38">
         <v>75</v>
       </c>
@@ -26951,7 +27825,7 @@
         <v>2.3959387413602429E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="38">
         <v>76</v>
       </c>
@@ -27139,7 +28013,7 @@
         <v>2.6192708023732504E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="38">
         <v>77</v>
       </c>
@@ -27327,7 +28201,7 @@
         <v>2.9348168281957566E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="38">
         <v>78</v>
       </c>
@@ -27515,7 +28389,7 @@
         <v>3.377959773576919E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="38">
         <v>79</v>
       </c>
@@ -27708,714 +28582,4 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B3:I36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="26" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
-        <v>825</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
-        <v>826</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-    </row>
-    <row r="5" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
-        <v>827</v>
-      </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-    </row>
-    <row r="6" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
-        <v>828</v>
-      </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-    </row>
-    <row r="7" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
-        <v>829</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-    </row>
-    <row r="8" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>831</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>832</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>834</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>835</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="45">
-        <v>16</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>837</v>
-      </c>
-      <c r="E13" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>838</v>
-      </c>
-      <c r="G13" s="48">
-        <v>2733</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="45">
-        <v>14</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>841</v>
-      </c>
-      <c r="E14" s="47">
-        <v>2000</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>842</v>
-      </c>
-      <c r="G14" s="48">
-        <v>658</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="45">
-        <v>2</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>845</v>
-      </c>
-      <c r="E15" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>846</v>
-      </c>
-      <c r="G15" s="48">
-        <v>8076</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="45">
-        <v>3</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>847</v>
-      </c>
-      <c r="E16" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>848</v>
-      </c>
-      <c r="G16" s="48">
-        <v>4873</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="45">
-        <v>15</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>849</v>
-      </c>
-      <c r="E17" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>838</v>
-      </c>
-      <c r="G17" s="48">
-        <v>7047</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="45">
-        <v>4</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>850</v>
-      </c>
-      <c r="E18" s="47">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G18" s="48">
-        <v>750</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="45">
-        <v>5</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>852</v>
-      </c>
-      <c r="E19" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>838</v>
-      </c>
-      <c r="G19" s="48">
-        <v>7686</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="45">
-        <v>15</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>853</v>
-      </c>
-      <c r="E20" s="47">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>846</v>
-      </c>
-      <c r="G20" s="48">
-        <v>4923</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="45">
-        <v>6</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>854</v>
-      </c>
-      <c r="E21" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>855</v>
-      </c>
-      <c r="G21" s="48">
-        <v>797</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="45">
-        <v>16</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>856</v>
-      </c>
-      <c r="E22" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>857</v>
-      </c>
-      <c r="G22" s="48">
-        <v>6544</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="45">
-        <v>17</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>854</v>
-      </c>
-      <c r="E23" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>858</v>
-      </c>
-      <c r="G23" s="48">
-        <v>995</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="45">
-        <v>7</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>859</v>
-      </c>
-      <c r="E24" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="G24" s="48">
-        <v>2741</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="45">
-        <v>8</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>861</v>
-      </c>
-      <c r="E25" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>855</v>
-      </c>
-      <c r="G25" s="48">
-        <v>7612</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="45">
-        <v>18</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>862</v>
-      </c>
-      <c r="E26" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G26" s="48">
-        <v>2956</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="45">
-        <v>9</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>863</v>
-      </c>
-      <c r="E27" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>864</v>
-      </c>
-      <c r="G27" s="48">
-        <v>5575</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="45">
-        <v>19</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>865</v>
-      </c>
-      <c r="E28" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>842</v>
-      </c>
-      <c r="G28" s="48">
-        <v>650</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="45">
-        <v>10</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>866</v>
-      </c>
-      <c r="E29" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>858</v>
-      </c>
-      <c r="G29" s="48">
-        <v>8165</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="45">
-        <v>20</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>867</v>
-      </c>
-      <c r="E30" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="G30" s="48">
-        <v>6751</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="45">
-        <v>11</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>868</v>
-      </c>
-      <c r="E31" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>858</v>
-      </c>
-      <c r="G31" s="48">
-        <v>7191</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="45">
-        <v>21</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>869</v>
-      </c>
-      <c r="E32" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G32" s="48">
-        <v>865</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I32" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="45">
-        <v>12</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>870</v>
-      </c>
-      <c r="E33" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>858</v>
-      </c>
-      <c r="G33" s="48">
-        <v>3338</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I33" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="45">
-        <v>22</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>871</v>
-      </c>
-      <c r="E34" s="47">
-        <v>1997</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>848</v>
-      </c>
-      <c r="G34" s="48">
-        <v>900</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>843</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="45">
-        <v>13</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>872</v>
-      </c>
-      <c r="E35" s="47">
-        <v>1998</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>873</v>
-      </c>
-      <c r="G35" s="48">
-        <v>450</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="51">
-        <v>23</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>874</v>
-      </c>
-      <c r="E36" s="53">
-        <v>1998</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>842</v>
-      </c>
-      <c r="G36" s="54">
-        <v>840</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>843</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>840</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>